--- a/medicine/Enfance/Luc_Chomarat/Luc_Chomarat.xlsx
+++ b/medicine/Enfance/Luc_Chomarat/Luc_Chomarat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Luc Chomarat, né en 1959[réf. nécessaire] en Algérie française[1],[2], est un écrivain et un traducteur français, auteur de roman policier et de littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luc Chomarat, né en 1959[réf. nécessaire] en Algérie française est un écrivain et un traducteur français, auteur de roman policier et de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né en Algérie, Luc Chomarat passe sa jeunesse à Saint-Étienne. Il s'intéresse très tôt au roman noir et au 7e art, développant une cinéphilie qui l'amène à s'intéresser autant aux séries B qu'aux œuvres d'auteurs plus reconnus, comme Ozu, Tarkovski ou Rohmer.
 Son œuvre est marquée par les questions de la filiation et de la transmission.
@@ -545,33 +559,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-La Folle du roi, Fleuve noir, coll. « Engrenage » no 55 (1982)  (ISBN 2-265-02165-2)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Folle du roi, Fleuve noir, coll. « Engrenage » no 55 (1982)  (ISBN 2-265-02165-2)
 L'Espion qui venait du livre, Payot &amp; Rivages, coll. « Rivages/Noir » no 944 (2014)  (ISBN 978-2-7436-2824-6)
 Un trou dans la toile, Payot &amp; Rivages, coll. « Rivages/Noir » no 1011 (2016)  (ISBN 978-2-7436-3631-9)
 Le Polar de l'été, La Manufacture de livres (2017)  (ISBN 978-2-3588-7236-2)
 Les dix meilleurs films de tous les temps, Marest éditeur  (2017)  (ISBN 979-1-0965-3505-7)
 Un petit chef-d'œuvre de littérature, Marest éditeur (2018)  (ISBN 979-1-0965-3513-2)
 Le Dernier Thriller Norvégien, La Manufacture de livres (2019)  (ISBN 978-2-3588-7492-2)
-Le Fils du professeur,, La Manufacture de livres, 2021  (ISBN 9782358877749)
+Le Fils du professeur La Manufacture de livres, 2021  (ISBN 9782358877749)
 L'Invention du cinéma, Marest éditeur (2022),  (ISBN 9782358877749), Prix Transfuge du meilleur livre de cinéma 2022
-Le Livre de la rentrée, La Manufacture de livres, 2023
-Littérature d'enfance et de jeunesse
-Série Praline
-Je suis très fâchée, Toucan jeunesse (2007)  (ISBN 978-2-916780-10-8)
-Je sais pas quoi faire, Toucan jeunesse (2007)  (ISBN 978-2-916780-11-5)
-Je suis riche, Toucan jeunesse (2008)  (ISBN 978-2-8100-0040-1)
-Je suis trop contente, Toucan jeunesse (2008)  (ISBN 978-2-8100-0041-8)
-Série Bruce
-Bruce footballeur, Toucan jeunesse (2008)  (ISBN 978-2-8100-0046-3)
-Bruce à la chasse, Toucan jeunesse (2008)  (ISBN 978-2-8100-0044-9)
-Préfaces
-Préface à Richard Fleischer, une œuvre de Nicolas Tellop, Marest éditeur (2021)
-Essais
-Le Zen de nos grands-mères, Éditions du Seuil (2008)  (ISBN 978-2-02-097235-2)
-La Publicité, Presses universitaires de France, coll. « Que sais-je ? » no 3960 (2013)  (ISBN 978-2-13-060734-2)
-Traduction
-La Mort viendra, petite (After Dark, my Sweet) de Jim Thompson, Payot &amp; Rivages, coll. « Rivages/Noir » no 52 (1988)  (ISBN 2-86930-155-3)</t>
+Le Livre de la rentrée, La Manufacture de livres, 2023</t>
         </is>
       </c>
     </row>
@@ -596,12 +599,207 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Praline</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Je suis très fâchée, Toucan jeunesse (2007)  (ISBN 978-2-916780-10-8)
+Je sais pas quoi faire, Toucan jeunesse (2007)  (ISBN 978-2-916780-11-5)
+Je suis riche, Toucan jeunesse (2008)  (ISBN 978-2-8100-0040-1)
+Je suis trop contente, Toucan jeunesse (2008)  (ISBN 978-2-8100-0041-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Luc_Chomarat</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Luc_Chomarat</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Bruce</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bruce footballeur, Toucan jeunesse (2008)  (ISBN 978-2-8100-0046-3)
+Bruce à la chasse, Toucan jeunesse (2008)  (ISBN 978-2-8100-0044-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Luc_Chomarat</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Luc_Chomarat</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Préfaces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Préface à Richard Fleischer, une œuvre de Nicolas Tellop, Marest éditeur (2021)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Luc_Chomarat</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Luc_Chomarat</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Zen de nos grands-mères, Éditions du Seuil (2008)  (ISBN 978-2-02-097235-2)
+La Publicité, Presses universitaires de France, coll. « Que sais-je ? » no 3960 (2013)  (ISBN 978-2-13-060734-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Luc_Chomarat</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Luc_Chomarat</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Traduction</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La Mort viendra, petite (After Dark, my Sweet) de Jim Thompson, Payot &amp; Rivages, coll. « Rivages/Noir » no 52 (1988)  (ISBN 2-86930-155-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Luc_Chomarat</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Luc_Chomarat</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Grand prix de littérature policière 2016 pour Un trou dans la toile[3]</t>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Grand prix de littérature policière 2016 pour Un trou dans la toile</t>
         </is>
       </c>
     </row>
